--- a/01.設計/cms/画面設計_CMS.xlsx
+++ b/01.設計/cms/画面設計_CMS.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -262,22 +262,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面起点の処理フロー図</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キテン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>WP 003  アルバム一覧画面</t>
     <rPh sb="12" eb="14">
       <t>イチラン</t>
@@ -419,21 +403,58 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アルバム一覧</t>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
+    <t xml:space="preserve">  ページリンク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページ数</t>
+  </si>
+  <si>
+    <t>検索条件入力欄開閉</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイヘイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">  アルバム 状態</t>
-    <rPh sb="7" eb="9">
-      <t>ジョウタイ</t>
+    <t>閉</t>
+    <rPh sb="0" eb="1">
+      <t>ヘイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">  ページリンク</t>
+    <t>空白</t>
+    <rPh sb="0" eb="2">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索条件</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無効なアルバムの表示</t>
+    <rPh sb="0" eb="2">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェックなし</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -644,7 +665,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -668,8 +689,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -777,18 +802,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -832,7 +845,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="27">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -844,6 +857,8 @@
     <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -856,6 +871,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1825,7 +1842,6 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
             <a:t>2</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2277,7 +2293,6 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
             <a:t>5</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2691,7 +2706,6 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
             <a:t>10</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2977,13 +2991,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>12701</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1460501</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2991,7 +3005,7 @@
         <xdr:cNvPr id="20" name="正方形/長方形 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D1E8351C-CE17-4DBA-A7EE-FECE8DD468ED}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D1E8351C-CE17-4DBA-A7EE-FECE8DD468ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3164,13 +3178,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2032000</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>5029200</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3178,7 +3192,7 @@
         <xdr:cNvPr id="21" name="正方形/長方形 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D1E8351C-CE17-4DBA-A7EE-FECE8DD468ED}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D1E8351C-CE17-4DBA-A7EE-FECE8DD468ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3369,13 +3383,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2374900</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>139699</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>55723</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3383,7 +3397,7 @@
         <xdr:cNvPr id="22" name="正方形/長方形 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D1E8351C-CE17-4DBA-A7EE-FECE8DD468ED}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D1E8351C-CE17-4DBA-A7EE-FECE8DD468ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3613,13 +3627,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1752600</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>55723</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3627,7 +3641,7 @@
         <xdr:cNvPr id="23" name="正方形/長方形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D1E8351C-CE17-4DBA-A7EE-FECE8DD468ED}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D1E8351C-CE17-4DBA-A7EE-FECE8DD468ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3857,13 +3871,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1752600</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>85012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2362200</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>85012</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3871,7 +3885,7 @@
         <xdr:cNvPr id="24" name="Elbow Connector 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{68741BD4-0677-4B59-A353-2FDB9E10CF8E}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{68741BD4-0677-4B59-A353-2FDB9E10CF8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3913,13 +3927,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1752600</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>85012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3964,13 +3978,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>4711700</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>177801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1244600</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>195422</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4111,13 +4125,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>34212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1752600</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>46912</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4162,13 +4176,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>165101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1917700</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>177801</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4437,7 +4451,6 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
             <a:t>11</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4851,7 +4864,6 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
             <a:t>14</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6031,11 +6043,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F108"/>
+  <dimension ref="B2:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
@@ -6059,7 +6069,7 @@
     </row>
     <row r="4" spans="2:6">
       <c r="C4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -6071,12 +6081,12 @@
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="2:6" ht="54" customHeight="1">
-      <c r="C7" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="C7" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="2" t="s">
@@ -6088,28 +6098,28 @@
       <c r="F10" s="10"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="39" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="C13" s="44">
+      <c r="C13" s="40">
         <v>1</v>
       </c>
-      <c r="D13" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47" t="s">
+      <c r="D13" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6118,7 +6128,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="25"/>
@@ -6128,7 +6138,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
@@ -6138,7 +6148,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
@@ -6148,7 +6158,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
@@ -6158,7 +6168,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="25"/>
@@ -6168,7 +6178,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
@@ -6178,7 +6188,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -6186,7 +6196,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -6194,7 +6204,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -6202,7 +6212,7 @@
         <v>11</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -6210,7 +6220,7 @@
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -6218,7 +6228,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -6226,7 +6236,7 @@
         <v>14</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="2:6">
@@ -6234,7 +6244,7 @@
         <v>15</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -6242,7 +6252,7 @@
         <v>16</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -6250,7 +6260,7 @@
         <v>17</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -6258,7 +6268,7 @@
         <v>18</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -6267,7 +6277,7 @@
         <v>19</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="9"/>
@@ -6296,16 +6306,16 @@
       <c r="F58" s="10"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="51" t="s">
+      <c r="D60" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="51" t="s">
+      <c r="E60" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="F60" s="52" t="s">
+      <c r="F60" s="48" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6313,59 +6323,79 @@
       <c r="C61" s="4">
         <v>1</v>
       </c>
-      <c r="D61" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E61" s="48"/>
-      <c r="F61" s="49"/>
+      <c r="D61" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="44"/>
+      <c r="F61" s="45"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="C62" s="7">
+      <c r="C62" s="4">
         <v>2</v>
       </c>
-      <c r="D62" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" s="20"/>
-      <c r="F62" s="21"/>
+      <c r="D62" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="44"/>
+      <c r="F62" s="45">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="2:6">
-      <c r="C63" s="22"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="25"/>
+      <c r="C63" s="4">
+        <v>3</v>
+      </c>
+      <c r="D63" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" s="44"/>
+      <c r="F63" s="45" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="64" spans="2:6">
-      <c r="C64" s="22"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="25"/>
+      <c r="C64" s="4">
+        <v>4</v>
+      </c>
+      <c r="D64" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="44"/>
+      <c r="F64" s="45" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="65" spans="3:6">
-      <c r="C65" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="28"/>
+      <c r="C65" s="7">
+        <v>5</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="20"/>
+      <c r="F65" s="21" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="66" spans="3:6">
-      <c r="C66" s="29"/>
-      <c r="D66" s="30"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="23"/>
       <c r="E66" s="24"/>
-      <c r="F66" s="31"/>
+      <c r="F66" s="25"/>
     </row>
     <row r="67" spans="3:6">
-      <c r="C67" s="29"/>
-      <c r="D67" s="30"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="23"/>
       <c r="E67" s="24"/>
-      <c r="F67" s="31"/>
+      <c r="F67" s="25"/>
     </row>
     <row r="68" spans="3:6">
-      <c r="C68" s="29"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="31"/>
+      <c r="C68" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="28"/>
     </row>
     <row r="69" spans="3:6">
       <c r="C69" s="29"/>
@@ -6428,173 +6458,63 @@
       <c r="F78" s="31"/>
     </row>
     <row r="79" spans="3:6">
-      <c r="C79" s="32"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="33"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="31"/>
     </row>
     <row r="80" spans="3:6">
-      <c r="C80" s="22"/>
-      <c r="D80" s="23"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="30"/>
       <c r="E80" s="24"/>
-      <c r="F80" s="25"/>
+      <c r="F80" s="31"/>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="C81" s="29"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="31"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="10"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="33"/>
     </row>
-    <row r="84" spans="2:6">
-      <c r="C84" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>33</v>
-      </c>
+    <row r="83" spans="2:6">
+      <c r="C83" s="22"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="25"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="C85" s="34"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
+      <c r="B85" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="10"/>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="C87" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="C88" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="28"/>
-    </row>
-    <row r="89" spans="2:6">
-      <c r="C89" s="37"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="38"/>
-    </row>
-    <row r="90" spans="2:6">
-      <c r="C90" s="37"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="38"/>
-    </row>
-    <row r="91" spans="2:6">
-      <c r="C91" s="37"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="38"/>
-    </row>
-    <row r="92" spans="2:6">
-      <c r="C92" s="37"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="38"/>
-    </row>
-    <row r="93" spans="2:6">
-      <c r="C93" s="37"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="38"/>
-    </row>
-    <row r="94" spans="2:6">
-      <c r="C94" s="37"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="38"/>
-    </row>
-    <row r="95" spans="2:6">
-      <c r="C95" s="37"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="38"/>
-    </row>
-    <row r="96" spans="2:6">
-      <c r="C96" s="37"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="38"/>
-    </row>
-    <row r="97" spans="3:6">
-      <c r="C97" s="37"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="38"/>
-    </row>
-    <row r="98" spans="3:6">
-      <c r="C98" s="37"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="38"/>
-    </row>
-    <row r="99" spans="3:6">
-      <c r="C99" s="37"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="38"/>
-    </row>
-    <row r="100" spans="3:6">
-      <c r="C100" s="37"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="38"/>
-    </row>
-    <row r="101" spans="3:6">
-      <c r="C101" s="37"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="38"/>
-    </row>
-    <row r="102" spans="3:6">
-      <c r="C102" s="37"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="38"/>
-    </row>
-    <row r="103" spans="3:6">
-      <c r="C103" s="37"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="38"/>
-    </row>
-    <row r="104" spans="3:6">
-      <c r="C104" s="37"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="38"/>
-    </row>
-    <row r="105" spans="3:6">
-      <c r="C105" s="37"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="38"/>
-    </row>
-    <row r="106" spans="3:6">
-      <c r="C106" s="37"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="38"/>
-    </row>
-    <row r="107" spans="3:6">
-      <c r="C107" s="37"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="38"/>
-    </row>
-    <row r="108" spans="3:6">
-      <c r="C108" s="39"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="40"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
